--- a/Code/Results/Cases/Case_1_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041596233342613</v>
+        <v>1.075908364421962</v>
       </c>
       <c r="D2">
-        <v>1.063340486798382</v>
+        <v>1.077261357775101</v>
       </c>
       <c r="E2">
-        <v>1.052965789802157</v>
+        <v>1.079356729958614</v>
       </c>
       <c r="F2">
-        <v>1.066308922577279</v>
+        <v>1.089179956340379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065209567838945</v>
+        <v>1.059076599191657</v>
       </c>
       <c r="J2">
-        <v>1.062600202553608</v>
+        <v>1.080810472197302</v>
       </c>
       <c r="K2">
-        <v>1.073982664859915</v>
+        <v>1.079943122504699</v>
       </c>
       <c r="L2">
-        <v>1.063733435900964</v>
+        <v>1.082032994152229</v>
       </c>
       <c r="M2">
-        <v>1.076915758141011</v>
+        <v>1.091830738180567</v>
       </c>
       <c r="N2">
-        <v>1.064109216723181</v>
+        <v>1.082345347038516</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.048064049520395</v>
+        <v>1.077243431783943</v>
       </c>
       <c r="D3">
-        <v>1.067680514041604</v>
+        <v>1.078159405063759</v>
       </c>
       <c r="E3">
-        <v>1.058314320104742</v>
+        <v>1.080499628080601</v>
       </c>
       <c r="F3">
-        <v>1.071518976327163</v>
+        <v>1.090289831200039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067436678599452</v>
+        <v>1.059467636986746</v>
       </c>
       <c r="J3">
-        <v>1.067324999687977</v>
+        <v>1.081803366582757</v>
       </c>
       <c r="K3">
-        <v>1.077514894948039</v>
+        <v>1.080658632997403</v>
       </c>
       <c r="L3">
-        <v>1.068251709136707</v>
+        <v>1.082993156911737</v>
       </c>
       <c r="M3">
-        <v>1.081311780258532</v>
+        <v>1.09275980305793</v>
       </c>
       <c r="N3">
-        <v>1.068840723611423</v>
+        <v>1.083339651447886</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0521449871314</v>
+        <v>1.078107060685423</v>
       </c>
       <c r="D4">
-        <v>1.070423396247186</v>
+        <v>1.078740262572961</v>
       </c>
       <c r="E4">
-        <v>1.06169451130491</v>
+        <v>1.081239142488592</v>
       </c>
       <c r="F4">
-        <v>1.074812608201856</v>
+        <v>1.091008005143443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068832844566378</v>
+        <v>1.059719345832128</v>
       </c>
       <c r="J4">
-        <v>1.07030274602655</v>
+        <v>1.082445059564098</v>
       </c>
       <c r="K4">
-        <v>1.079740149843884</v>
+        <v>1.081120738932602</v>
       </c>
       <c r="L4">
-        <v>1.071101271104066</v>
+        <v>1.083613839765412</v>
       </c>
       <c r="M4">
-        <v>1.084084775803715</v>
+        <v>1.093360382327046</v>
       </c>
       <c r="N4">
-        <v>1.071822698691349</v>
+        <v>1.083982255706863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05383684835973</v>
+        <v>1.07847007353253</v>
       </c>
       <c r="D5">
-        <v>1.071561496587899</v>
+        <v>1.078984398462305</v>
       </c>
       <c r="E5">
-        <v>1.063097098170314</v>
+        <v>1.081550031848547</v>
       </c>
       <c r="F5">
-        <v>1.076179485212944</v>
+        <v>1.091309929295947</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069409433690297</v>
+        <v>1.059824849150464</v>
       </c>
       <c r="J5">
-        <v>1.071536378874402</v>
+        <v>1.082714643292081</v>
       </c>
       <c r="K5">
-        <v>1.080661778137541</v>
+        <v>1.081314799060352</v>
       </c>
       <c r="L5">
-        <v>1.072282258856451</v>
+        <v>1.083874631111688</v>
       </c>
       <c r="M5">
-        <v>1.085234141848433</v>
+        <v>1.093612726356936</v>
       </c>
       <c r="N5">
-        <v>1.073058083439344</v>
+        <v>1.084252222274661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05411955838551</v>
+        <v>1.078531021742498</v>
       </c>
       <c r="D6">
-        <v>1.071751726758539</v>
+        <v>1.079025386651493</v>
       </c>
       <c r="E6">
-        <v>1.06333154115309</v>
+        <v>1.081602231440005</v>
       </c>
       <c r="F6">
-        <v>1.076407970852182</v>
+        <v>1.091360623950854</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069505649105227</v>
+        <v>1.059842545163776</v>
       </c>
       <c r="J6">
-        <v>1.071742466257582</v>
+        <v>1.082759896848412</v>
       </c>
       <c r="K6">
-        <v>1.080815726338856</v>
+        <v>1.081347370364772</v>
       </c>
       <c r="L6">
-        <v>1.072479578124941</v>
+        <v>1.083918410741976</v>
       </c>
       <c r="M6">
-        <v>1.085426183800793</v>
+        <v>1.093655087885684</v>
       </c>
       <c r="N6">
-        <v>1.073264463490247</v>
+        <v>1.084297540096232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.052167685749126</v>
+        <v>1.078111911500241</v>
       </c>
       <c r="D7">
-        <v>1.070438661737228</v>
+        <v>1.078743524950295</v>
       </c>
       <c r="E7">
-        <v>1.061713324113231</v>
+        <v>1.081243296615254</v>
       </c>
       <c r="F7">
-        <v>1.074830941244775</v>
+        <v>1.091012039452129</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068840589177651</v>
+        <v>1.059720756809891</v>
       </c>
       <c r="J7">
-        <v>1.070319300398558</v>
+        <v>1.082448662475828</v>
       </c>
       <c r="K7">
-        <v>1.079752518447419</v>
+        <v>1.08112333279458</v>
       </c>
       <c r="L7">
-        <v>1.071117117220846</v>
+        <v>1.083617325035007</v>
       </c>
       <c r="M7">
-        <v>1.084100197214171</v>
+        <v>1.093363754706906</v>
       </c>
       <c r="N7">
-        <v>1.071839276572463</v>
+        <v>1.083985863735141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.043804364203622</v>
+        <v>1.076359609955664</v>
       </c>
       <c r="D8">
-        <v>1.064821167434249</v>
+        <v>1.077564906964118</v>
       </c>
       <c r="E8">
-        <v>1.054790592785288</v>
+        <v>1.079742982232745</v>
       </c>
       <c r="F8">
-        <v>1.068086265639231</v>
+        <v>1.089555042294873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065971778832678</v>
+        <v>1.059209025683535</v>
       </c>
       <c r="J8">
-        <v>1.064213947487627</v>
+        <v>1.081146187276087</v>
       </c>
       <c r="K8">
-        <v>1.0751892496588</v>
+        <v>1.080185114735373</v>
       </c>
       <c r="L8">
-        <v>1.065276218266296</v>
+        <v>1.082357612173658</v>
       </c>
       <c r="M8">
-        <v>1.078416674024821</v>
+        <v>1.092144842463351</v>
       </c>
       <c r="N8">
-        <v>1.065725253360105</v>
+        <v>1.08268153887122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.028212057037883</v>
+        <v>1.073269796003791</v>
       </c>
       <c r="D9">
-        <v>1.054389910867159</v>
+        <v>1.075486170599834</v>
       </c>
       <c r="E9">
-        <v>1.041931956324169</v>
+        <v>1.077099033738972</v>
       </c>
       <c r="F9">
-        <v>1.055567123333669</v>
+        <v>1.086987651845554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060553257548661</v>
+        <v>1.058297161427716</v>
       </c>
       <c r="J9">
-        <v>1.052806451995407</v>
+        <v>1.078845035135648</v>
       </c>
       <c r="K9">
-        <v>1.066658148137342</v>
+        <v>1.078525100288056</v>
       </c>
       <c r="L9">
-        <v>1.054379473172738</v>
+        <v>1.080133122982036</v>
       </c>
       <c r="M9">
-        <v>1.067818696256845</v>
+        <v>1.089992405631533</v>
       </c>
       <c r="N9">
-        <v>1.054301557915828</v>
+        <v>1.080377118830796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.017154469284756</v>
+        <v>1.071208371041656</v>
       </c>
       <c r="D10">
-        <v>1.047029512968917</v>
+        <v>1.074099051377085</v>
       </c>
       <c r="E10">
-        <v>1.032851475525053</v>
+        <v>1.075336162034588</v>
       </c>
       <c r="F10">
-        <v>1.046734042112595</v>
+        <v>1.085275992149388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056667191927706</v>
+        <v>1.057682400828378</v>
       </c>
       <c r="J10">
-        <v>1.04470362583467</v>
+        <v>1.077306768494726</v>
       </c>
       <c r="K10">
-        <v>1.060598559909886</v>
+        <v>1.077413830157047</v>
       </c>
       <c r="L10">
-        <v>1.046651881424473</v>
+        <v>1.078646863511584</v>
       </c>
       <c r="M10">
-        <v>1.060307828562497</v>
+        <v>1.08855430326012</v>
       </c>
       <c r="N10">
-        <v>1.046187224812535</v>
+        <v>1.078836667674802</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012187011133105</v>
+        <v>1.070315343002008</v>
       </c>
       <c r="D11">
-        <v>1.043733930842761</v>
+        <v>1.073498095675695</v>
       </c>
       <c r="E11">
-        <v>1.028782813933711</v>
+        <v>1.074572738660173</v>
       </c>
       <c r="F11">
-        <v>1.042778474617849</v>
+        <v>1.084534789699484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054912144788624</v>
+        <v>1.05741456813263</v>
       </c>
       <c r="J11">
-        <v>1.041061440086078</v>
+        <v>1.076639667940609</v>
       </c>
       <c r="K11">
-        <v>1.057875672251337</v>
+        <v>1.076931535938136</v>
       </c>
       <c r="L11">
-        <v>1.04318160269697</v>
+        <v>1.078002499643693</v>
       </c>
       <c r="M11">
-        <v>1.056936358229376</v>
+        <v>1.087930824658658</v>
       </c>
       <c r="N11">
-        <v>1.042539866742417</v>
+        <v>1.078168619761381</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010312791648236</v>
+        <v>1.069983566302618</v>
       </c>
       <c r="D12">
-        <v>1.042492357515546</v>
+        <v>1.073274824290128</v>
       </c>
       <c r="E12">
-        <v>1.027249442234521</v>
+        <v>1.074289153826329</v>
       </c>
       <c r="F12">
-        <v>1.0412881018865</v>
+        <v>1.084259465964029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054248665254366</v>
+        <v>1.05731483626787</v>
       </c>
       <c r="J12">
-        <v>1.03968701881677</v>
+        <v>1.076391721358779</v>
       </c>
       <c r="K12">
-        <v>1.056848367960821</v>
+        <v>1.076752222931966</v>
       </c>
       <c r="L12">
-        <v>1.041872566359724</v>
+        <v>1.07776303145219</v>
       </c>
       <c r="M12">
-        <v>1.055664847511776</v>
+        <v>1.087699119448968</v>
       </c>
       <c r="N12">
-        <v>1.041163493637258</v>
+        <v>1.077920321066965</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010716170749503</v>
+        <v>1.070054736590207</v>
       </c>
       <c r="D13">
-        <v>1.042759488435328</v>
+        <v>1.073322719024764</v>
       </c>
       <c r="E13">
-        <v>1.027579381768994</v>
+        <v>1.074349984467158</v>
       </c>
       <c r="F13">
-        <v>1.041608771530055</v>
+        <v>1.084318524236708</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05439151986446</v>
+        <v>1.057336240277406</v>
       </c>
       <c r="J13">
-        <v>1.039982837474883</v>
+        <v>1.076444913827288</v>
       </c>
       <c r="K13">
-        <v>1.057069465371217</v>
+        <v>1.076790693776998</v>
       </c>
       <c r="L13">
-        <v>1.042154288467466</v>
+        <v>1.077814403779726</v>
       </c>
       <c r="M13">
-        <v>1.055938481621441</v>
+        <v>1.087748826347252</v>
       </c>
       <c r="N13">
-        <v>1.041459732391796</v>
+        <v>1.07797358907488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012032693946179</v>
+        <v>1.070287919610423</v>
       </c>
       <c r="D14">
-        <v>1.043631664973164</v>
+        <v>1.073479641012675</v>
       </c>
       <c r="E14">
-        <v>1.028656525052938</v>
+        <v>1.074549297775904</v>
       </c>
       <c r="F14">
-        <v>1.042655719250248</v>
+        <v>1.084512031529941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054857541864476</v>
+        <v>1.057406329306938</v>
       </c>
       <c r="J14">
-        <v>1.040948278718403</v>
+        <v>1.076619175789324</v>
       </c>
       <c r="K14">
-        <v>1.057791085637459</v>
+        <v>1.076916717291935</v>
       </c>
       <c r="L14">
-        <v>1.043073814128297</v>
+        <v>1.077982707644224</v>
       </c>
       <c r="M14">
-        <v>1.056831654253463</v>
+        <v>1.087911674240468</v>
       </c>
       <c r="N14">
-        <v>1.042426544672619</v>
+        <v>1.07814809850889</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012839926098216</v>
+        <v>1.070431582468575</v>
       </c>
       <c r="D15">
-        <v>1.044166693482023</v>
+        <v>1.073576319214884</v>
       </c>
       <c r="E15">
-        <v>1.029317212673104</v>
+        <v>1.074672099178759</v>
       </c>
       <c r="F15">
-        <v>1.043297936676442</v>
+        <v>1.084631256628052</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055143117021291</v>
+        <v>1.057449480731079</v>
       </c>
       <c r="J15">
-        <v>1.041540216406546</v>
+        <v>1.076726523628982</v>
       </c>
       <c r="K15">
-        <v>1.058233560159013</v>
+        <v>1.076994342314128</v>
       </c>
       <c r="L15">
-        <v>1.043637668226739</v>
+        <v>1.07808638888258</v>
       </c>
       <c r="M15">
-        <v>1.057379383019192</v>
+        <v>1.088011994581866</v>
       </c>
       <c r="N15">
-        <v>1.043019322980176</v>
+        <v>1.078255598794794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.017480185955729</v>
+        <v>1.071267629268905</v>
       </c>
       <c r="D16">
-        <v>1.047245848750174</v>
+        <v>1.074138927916642</v>
       </c>
       <c r="E16">
-        <v>1.033118489641527</v>
+        <v>1.075386825887285</v>
       </c>
       <c r="F16">
-        <v>1.046993684081257</v>
+        <v>1.085325182269506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056782085478824</v>
+        <v>1.057700141430325</v>
       </c>
       <c r="J16">
-        <v>1.044942407924887</v>
+        <v>1.077351020051046</v>
       </c>
       <c r="K16">
-        <v>1.06077709724663</v>
+        <v>1.07744581501581</v>
       </c>
       <c r="L16">
-        <v>1.046879462743654</v>
+        <v>1.078689610714481</v>
       </c>
       <c r="M16">
-        <v>1.060528963349004</v>
+        <v>1.088595665097444</v>
       </c>
       <c r="N16">
-        <v>1.04642634600071</v>
+        <v>1.078880982073407</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020341422215542</v>
+        <v>1.071791945035184</v>
       </c>
       <c r="D17">
-        <v>1.049147500996474</v>
+        <v>1.07449175005311</v>
       </c>
       <c r="E17">
-        <v>1.035465274740176</v>
+        <v>1.075835129923892</v>
       </c>
       <c r="F17">
-        <v>1.049275934294106</v>
+        <v>1.085760450872085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057790318465008</v>
+        <v>1.057856935284717</v>
       </c>
       <c r="J17">
-        <v>1.04703974425134</v>
+        <v>1.077742475165235</v>
       </c>
       <c r="K17">
-        <v>1.06234538285954</v>
+        <v>1.077728714744596</v>
       </c>
       <c r="L17">
-        <v>1.048878787431204</v>
+        <v>1.079067779237725</v>
       </c>
       <c r="M17">
-        <v>1.062471826092677</v>
+        <v>1.088961578635439</v>
       </c>
       <c r="N17">
-        <v>1.048526660785314</v>
+        <v>1.079272993098759</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.02199317319309</v>
+        <v>1.072097729520561</v>
       </c>
       <c r="D18">
-        <v>1.050246319026414</v>
+        <v>1.074697514052067</v>
       </c>
       <c r="E18">
-        <v>1.03682103215729</v>
+        <v>1.076096609710564</v>
       </c>
       <c r="F18">
-        <v>1.050594618567624</v>
+        <v>1.08601433170288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058371473767755</v>
+        <v>1.057948232572411</v>
       </c>
       <c r="J18">
-        <v>1.048250301172517</v>
+        <v>1.077970705963722</v>
       </c>
       <c r="K18">
-        <v>1.063250654977411</v>
+        <v>1.077893618647834</v>
       </c>
       <c r="L18">
-        <v>1.050033077115139</v>
+        <v>1.079288281130211</v>
       </c>
       <c r="M18">
-        <v>1.063593655870585</v>
+        <v>1.089174935557724</v>
       </c>
       <c r="N18">
-        <v>1.049738936836172</v>
+        <v>1.079501548011158</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022553527996654</v>
+        <v>1.072201987446659</v>
       </c>
       <c r="D19">
-        <v>1.050619259451112</v>
+        <v>1.074767668999096</v>
       </c>
       <c r="E19">
-        <v>1.037281135774966</v>
+        <v>1.076185766204382</v>
       </c>
       <c r="F19">
-        <v>1.051042175023923</v>
+        <v>1.086100897882652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058568477592795</v>
+        <v>1.057979335829773</v>
       </c>
       <c r="J19">
-        <v>1.048660943925125</v>
+        <v>1.078048510157192</v>
       </c>
       <c r="K19">
-        <v>1.063557750423167</v>
+        <v>1.077949828549953</v>
       </c>
       <c r="L19">
-        <v>1.050424683792145</v>
+        <v>1.07936345350773</v>
       </c>
       <c r="M19">
-        <v>1.063974272633952</v>
+        <v>1.089247672210641</v>
       </c>
       <c r="N19">
-        <v>1.050150162748591</v>
+        <v>1.079579462695508</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020036228208788</v>
+        <v>1.071735695083554</v>
       </c>
       <c r="D20">
-        <v>1.048944553677159</v>
+        <v>1.074453898810608</v>
       </c>
       <c r="E20">
-        <v>1.035214850774962</v>
+        <v>1.075787032026088</v>
       </c>
       <c r="F20">
-        <v>1.049032374815408</v>
+        <v>1.085713751095876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057682866285456</v>
+        <v>1.057840129128838</v>
       </c>
       <c r="J20">
-        <v>1.046816052416706</v>
+        <v>1.077700485926675</v>
       </c>
       <c r="K20">
-        <v>1.062178108525003</v>
+        <v>1.077698373328934</v>
       </c>
       <c r="L20">
-        <v>1.048665517305059</v>
+        <v>1.079027213356454</v>
       </c>
       <c r="M20">
-        <v>1.062264564299928</v>
+        <v>1.088922327269383</v>
       </c>
       <c r="N20">
-        <v>1.048302651282617</v>
+        <v>1.079230944230665</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011645831717892</v>
+        <v>1.070219254882785</v>
       </c>
       <c r="D21">
-        <v>1.043375322152818</v>
+        <v>1.073433432778022</v>
       </c>
       <c r="E21">
-        <v>1.028339956165671</v>
+        <v>1.074490605416573</v>
       </c>
       <c r="F21">
-        <v>1.042348014042548</v>
+        <v>1.084455048694079</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054720635608162</v>
+        <v>1.057385696656821</v>
       </c>
       <c r="J21">
-        <v>1.040664587885085</v>
+        <v>1.076567864302759</v>
       </c>
       <c r="K21">
-        <v>1.057579034163328</v>
+        <v>1.076879611139849</v>
       </c>
       <c r="L21">
-        <v>1.042803601042318</v>
+        <v>1.077933149755982</v>
       </c>
       <c r="M21">
-        <v>1.056569178067428</v>
+        <v>1.087863722851923</v>
       </c>
       <c r="N21">
-        <v>1.042142450965778</v>
+        <v>1.078096714154129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.006200963769465</v>
+        <v>1.069265423221056</v>
       </c>
       <c r="D22">
-        <v>1.039772125294159</v>
+        <v>1.072791537337385</v>
       </c>
       <c r="E22">
-        <v>1.023888750885546</v>
+        <v>1.073675400382524</v>
       </c>
       <c r="F22">
-        <v>1.038022392283734</v>
+        <v>1.083663604544688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052790779881758</v>
+        <v>1.057098548132589</v>
       </c>
       <c r="J22">
-        <v>1.036671382517184</v>
+        <v>1.07585483794163</v>
       </c>
       <c r="K22">
-        <v>1.054594822980632</v>
+        <v>1.076363853411399</v>
       </c>
       <c r="L22">
-        <v>1.039001370527534</v>
+        <v>1.07724455729054</v>
       </c>
       <c r="M22">
-        <v>1.052876463099907</v>
+        <v>1.087197455594955</v>
       </c>
       <c r="N22">
-        <v>1.038143574788228</v>
+        <v>1.077382675213783</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.009104226090412</v>
+        <v>1.069771105181404</v>
       </c>
       <c r="D23">
-        <v>1.041692292828602</v>
+        <v>1.073131845889301</v>
       </c>
       <c r="E23">
-        <v>1.026261174420134</v>
+        <v>1.074107565256758</v>
       </c>
       <c r="F23">
-        <v>1.040327658656343</v>
+        <v>1.084083169199988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053820475053456</v>
+        <v>1.057250906728913</v>
       </c>
       <c r="J23">
-        <v>1.038800689719346</v>
+        <v>1.076232913008848</v>
       </c>
       <c r="K23">
-        <v>1.056185954981753</v>
+        <v>1.076637358620951</v>
       </c>
       <c r="L23">
-        <v>1.041028550729916</v>
+        <v>1.077609661276927</v>
       </c>
       <c r="M23">
-        <v>1.054845102563375</v>
+        <v>1.087550721558235</v>
       </c>
       <c r="N23">
-        <v>1.040275905850852</v>
+        <v>1.077761287190962</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020174185115017</v>
+        <v>1.071761112139044</v>
       </c>
       <c r="D24">
-        <v>1.049036288838601</v>
+        <v>1.074471002254274</v>
       </c>
       <c r="E24">
-        <v>1.035328046900729</v>
+        <v>1.075808765421664</v>
       </c>
       <c r="F24">
-        <v>1.049142467423958</v>
+        <v>1.085734852726951</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057731440663497</v>
+        <v>1.05784772359522</v>
       </c>
       <c r="J24">
-        <v>1.046917168524766</v>
+        <v>1.077719459360035</v>
       </c>
       <c r="K24">
-        <v>1.062253721824368</v>
+        <v>1.077712083638457</v>
       </c>
       <c r="L24">
-        <v>1.048761921514929</v>
+        <v>1.079045543571258</v>
       </c>
       <c r="M24">
-        <v>1.06235825214545</v>
+        <v>1.088940063501626</v>
       </c>
       <c r="N24">
-        <v>1.048403910987149</v>
+        <v>1.079249944608476</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.032352921010451</v>
+        <v>1.074068846710272</v>
       </c>
       <c r="D25">
-        <v>1.057154452395592</v>
+        <v>1.076023798788963</v>
       </c>
       <c r="E25">
-        <v>1.045340702105348</v>
+        <v>1.077782592420476</v>
       </c>
       <c r="F25">
-        <v>1.058884687776226</v>
+        <v>1.087651389377916</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062000001187154</v>
+        <v>1.058534104722807</v>
       </c>
       <c r="J25">
-        <v>1.055838468553592</v>
+        <v>1.079440663841546</v>
       </c>
       <c r="K25">
-        <v>1.06892588209848</v>
+        <v>1.078955059635327</v>
       </c>
       <c r="L25">
-        <v>1.057273695002747</v>
+        <v>1.08070877539442</v>
       </c>
       <c r="M25">
-        <v>1.070632835417118</v>
+        <v>1.090549410489585</v>
       </c>
       <c r="N25">
-        <v>1.057337880285303</v>
+        <v>1.080973593397776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075908364421962</v>
+        <v>1.041596233342613</v>
       </c>
       <c r="D2">
-        <v>1.077261357775101</v>
+        <v>1.063340486798382</v>
       </c>
       <c r="E2">
-        <v>1.079356729958614</v>
+        <v>1.052965789802158</v>
       </c>
       <c r="F2">
-        <v>1.089179956340379</v>
+        <v>1.066308922577279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059076599191657</v>
+        <v>1.065209567838945</v>
       </c>
       <c r="J2">
-        <v>1.080810472197302</v>
+        <v>1.062600202553608</v>
       </c>
       <c r="K2">
-        <v>1.079943122504699</v>
+        <v>1.073982664859915</v>
       </c>
       <c r="L2">
-        <v>1.082032994152229</v>
+        <v>1.063733435900963</v>
       </c>
       <c r="M2">
-        <v>1.091830738180567</v>
+        <v>1.076915758141011</v>
       </c>
       <c r="N2">
-        <v>1.082345347038516</v>
+        <v>1.064109216723181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077243431783943</v>
+        <v>1.048064049520395</v>
       </c>
       <c r="D3">
-        <v>1.078159405063759</v>
+        <v>1.067680514041604</v>
       </c>
       <c r="E3">
-        <v>1.080499628080601</v>
+        <v>1.058314320104741</v>
       </c>
       <c r="F3">
-        <v>1.090289831200039</v>
+        <v>1.071518976327163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059467636986746</v>
+        <v>1.067436678599452</v>
       </c>
       <c r="J3">
-        <v>1.081803366582757</v>
+        <v>1.067324999687976</v>
       </c>
       <c r="K3">
-        <v>1.080658632997403</v>
+        <v>1.077514894948039</v>
       </c>
       <c r="L3">
-        <v>1.082993156911737</v>
+        <v>1.068251709136706</v>
       </c>
       <c r="M3">
-        <v>1.09275980305793</v>
+        <v>1.081311780258532</v>
       </c>
       <c r="N3">
-        <v>1.083339651447886</v>
+        <v>1.068840723611422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.078107060685423</v>
+        <v>1.0521449871314</v>
       </c>
       <c r="D4">
-        <v>1.078740262572961</v>
+        <v>1.070423396247186</v>
       </c>
       <c r="E4">
-        <v>1.081239142488592</v>
+        <v>1.061694511304909</v>
       </c>
       <c r="F4">
-        <v>1.091008005143443</v>
+        <v>1.074812608201856</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059719345832128</v>
+        <v>1.068832844566378</v>
       </c>
       <c r="J4">
-        <v>1.082445059564098</v>
+        <v>1.07030274602655</v>
       </c>
       <c r="K4">
-        <v>1.081120738932602</v>
+        <v>1.079740149843884</v>
       </c>
       <c r="L4">
-        <v>1.083613839765412</v>
+        <v>1.071101271104066</v>
       </c>
       <c r="M4">
-        <v>1.093360382327046</v>
+        <v>1.084084775803716</v>
       </c>
       <c r="N4">
-        <v>1.083982255706863</v>
+        <v>1.071822698691349</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07847007353253</v>
+        <v>1.05383684835973</v>
       </c>
       <c r="D5">
-        <v>1.078984398462305</v>
+        <v>1.071561496587899</v>
       </c>
       <c r="E5">
-        <v>1.081550031848547</v>
+        <v>1.063097098170314</v>
       </c>
       <c r="F5">
-        <v>1.091309929295947</v>
+        <v>1.076179485212944</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059824849150464</v>
+        <v>1.069409433690298</v>
       </c>
       <c r="J5">
-        <v>1.082714643292081</v>
+        <v>1.071536378874403</v>
       </c>
       <c r="K5">
-        <v>1.081314799060352</v>
+        <v>1.080661778137542</v>
       </c>
       <c r="L5">
-        <v>1.083874631111688</v>
+        <v>1.072282258856451</v>
       </c>
       <c r="M5">
-        <v>1.093612726356936</v>
+        <v>1.085234141848434</v>
       </c>
       <c r="N5">
-        <v>1.084252222274661</v>
+        <v>1.073058083439344</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078531021742498</v>
+        <v>1.05411955838551</v>
       </c>
       <c r="D6">
-        <v>1.079025386651493</v>
+        <v>1.071751726758539</v>
       </c>
       <c r="E6">
-        <v>1.081602231440005</v>
+        <v>1.06333154115309</v>
       </c>
       <c r="F6">
-        <v>1.091360623950854</v>
+        <v>1.076407970852182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059842545163776</v>
+        <v>1.069505649105227</v>
       </c>
       <c r="J6">
-        <v>1.082759896848412</v>
+        <v>1.071742466257583</v>
       </c>
       <c r="K6">
-        <v>1.081347370364772</v>
+        <v>1.080815726338856</v>
       </c>
       <c r="L6">
-        <v>1.083918410741976</v>
+        <v>1.072479578124941</v>
       </c>
       <c r="M6">
-        <v>1.093655087885684</v>
+        <v>1.085426183800793</v>
       </c>
       <c r="N6">
-        <v>1.084297540096232</v>
+        <v>1.073264463490247</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078111911500241</v>
+        <v>1.052167685749126</v>
       </c>
       <c r="D7">
-        <v>1.078743524950295</v>
+        <v>1.070438661737228</v>
       </c>
       <c r="E7">
-        <v>1.081243296615254</v>
+        <v>1.06171332411323</v>
       </c>
       <c r="F7">
-        <v>1.091012039452129</v>
+        <v>1.074830941244775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059720756809891</v>
+        <v>1.068840589177651</v>
       </c>
       <c r="J7">
-        <v>1.082448662475828</v>
+        <v>1.070319300398557</v>
       </c>
       <c r="K7">
-        <v>1.08112333279458</v>
+        <v>1.079752518447419</v>
       </c>
       <c r="L7">
-        <v>1.083617325035007</v>
+        <v>1.071117117220845</v>
       </c>
       <c r="M7">
-        <v>1.093363754706906</v>
+        <v>1.084100197214171</v>
       </c>
       <c r="N7">
-        <v>1.083985863735141</v>
+        <v>1.071839276572463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.076359609955664</v>
+        <v>1.043804364203623</v>
       </c>
       <c r="D8">
-        <v>1.077564906964118</v>
+        <v>1.06482116743425</v>
       </c>
       <c r="E8">
-        <v>1.079742982232745</v>
+        <v>1.054790592785289</v>
       </c>
       <c r="F8">
-        <v>1.089555042294873</v>
+        <v>1.068086265639232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059209025683535</v>
+        <v>1.065971778832679</v>
       </c>
       <c r="J8">
-        <v>1.081146187276087</v>
+        <v>1.064213947487628</v>
       </c>
       <c r="K8">
-        <v>1.080185114735373</v>
+        <v>1.075189249658801</v>
       </c>
       <c r="L8">
-        <v>1.082357612173658</v>
+        <v>1.065276218266298</v>
       </c>
       <c r="M8">
-        <v>1.092144842463351</v>
+        <v>1.078416674024822</v>
       </c>
       <c r="N8">
-        <v>1.08268153887122</v>
+        <v>1.065725253360107</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.073269796003791</v>
+        <v>1.028212057037884</v>
       </c>
       <c r="D9">
-        <v>1.075486170599834</v>
+        <v>1.05438991086716</v>
       </c>
       <c r="E9">
-        <v>1.077099033738972</v>
+        <v>1.041931956324169</v>
       </c>
       <c r="F9">
-        <v>1.086987651845554</v>
+        <v>1.055567123333669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058297161427716</v>
+        <v>1.060553257548661</v>
       </c>
       <c r="J9">
-        <v>1.078845035135648</v>
+        <v>1.052806451995407</v>
       </c>
       <c r="K9">
-        <v>1.078525100288056</v>
+        <v>1.066658148137342</v>
       </c>
       <c r="L9">
-        <v>1.080133122982036</v>
+        <v>1.054379473172739</v>
       </c>
       <c r="M9">
-        <v>1.089992405631533</v>
+        <v>1.067818696256845</v>
       </c>
       <c r="N9">
-        <v>1.080377118830796</v>
+        <v>1.054301557915828</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.071208371041656</v>
+        <v>1.017154469284755</v>
       </c>
       <c r="D10">
-        <v>1.074099051377085</v>
+        <v>1.047029512968916</v>
       </c>
       <c r="E10">
-        <v>1.075336162034588</v>
+        <v>1.032851475525052</v>
       </c>
       <c r="F10">
-        <v>1.085275992149388</v>
+        <v>1.046734042112595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057682400828378</v>
+        <v>1.056667191927706</v>
       </c>
       <c r="J10">
-        <v>1.077306768494726</v>
+        <v>1.044703625834669</v>
       </c>
       <c r="K10">
-        <v>1.077413830157047</v>
+        <v>1.060598559909885</v>
       </c>
       <c r="L10">
-        <v>1.078646863511584</v>
+        <v>1.046651881424472</v>
       </c>
       <c r="M10">
-        <v>1.08855430326012</v>
+        <v>1.060307828562497</v>
       </c>
       <c r="N10">
-        <v>1.078836667674802</v>
+        <v>1.046187224812535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070315343002008</v>
+        <v>1.012187011133106</v>
       </c>
       <c r="D11">
-        <v>1.073498095675695</v>
+        <v>1.043733930842762</v>
       </c>
       <c r="E11">
-        <v>1.074572738660173</v>
+        <v>1.028782813933711</v>
       </c>
       <c r="F11">
-        <v>1.084534789699484</v>
+        <v>1.042778474617849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05741456813263</v>
+        <v>1.054912144788624</v>
       </c>
       <c r="J11">
-        <v>1.076639667940609</v>
+        <v>1.041061440086079</v>
       </c>
       <c r="K11">
-        <v>1.076931535938136</v>
+        <v>1.057875672251338</v>
       </c>
       <c r="L11">
-        <v>1.078002499643693</v>
+        <v>1.04318160269697</v>
       </c>
       <c r="M11">
-        <v>1.087930824658658</v>
+        <v>1.056936358229376</v>
       </c>
       <c r="N11">
-        <v>1.078168619761381</v>
+        <v>1.042539866742417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.069983566302618</v>
+        <v>1.010312791648235</v>
       </c>
       <c r="D12">
-        <v>1.073274824290128</v>
+        <v>1.042492357515546</v>
       </c>
       <c r="E12">
-        <v>1.074289153826329</v>
+        <v>1.02724944223452</v>
       </c>
       <c r="F12">
-        <v>1.084259465964029</v>
+        <v>1.041288101886499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05731483626787</v>
+        <v>1.054248665254366</v>
       </c>
       <c r="J12">
-        <v>1.076391721358779</v>
+        <v>1.039687018816769</v>
       </c>
       <c r="K12">
-        <v>1.076752222931966</v>
+        <v>1.05684836796082</v>
       </c>
       <c r="L12">
-        <v>1.07776303145219</v>
+        <v>1.041872566359723</v>
       </c>
       <c r="M12">
-        <v>1.087699119448968</v>
+        <v>1.055664847511775</v>
       </c>
       <c r="N12">
-        <v>1.077920321066965</v>
+        <v>1.041163493637257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.070054736590207</v>
+        <v>1.010716170749503</v>
       </c>
       <c r="D13">
-        <v>1.073322719024764</v>
+        <v>1.042759488435329</v>
       </c>
       <c r="E13">
-        <v>1.074349984467158</v>
+        <v>1.027579381768994</v>
       </c>
       <c r="F13">
-        <v>1.084318524236708</v>
+        <v>1.041608771530054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057336240277406</v>
+        <v>1.05439151986446</v>
       </c>
       <c r="J13">
-        <v>1.076444913827288</v>
+        <v>1.039982837474883</v>
       </c>
       <c r="K13">
-        <v>1.076790693776998</v>
+        <v>1.057069465371217</v>
       </c>
       <c r="L13">
-        <v>1.077814403779726</v>
+        <v>1.042154288467466</v>
       </c>
       <c r="M13">
-        <v>1.087748826347252</v>
+        <v>1.055938481621441</v>
       </c>
       <c r="N13">
-        <v>1.07797358907488</v>
+        <v>1.041459732391796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.070287919610423</v>
+        <v>1.012032693946179</v>
       </c>
       <c r="D14">
-        <v>1.073479641012675</v>
+        <v>1.043631664973164</v>
       </c>
       <c r="E14">
-        <v>1.074549297775904</v>
+        <v>1.028656525052937</v>
       </c>
       <c r="F14">
-        <v>1.084512031529941</v>
+        <v>1.042655719250248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057406329306938</v>
+        <v>1.054857541864476</v>
       </c>
       <c r="J14">
-        <v>1.076619175789324</v>
+        <v>1.040948278718403</v>
       </c>
       <c r="K14">
-        <v>1.076916717291935</v>
+        <v>1.057791085637459</v>
       </c>
       <c r="L14">
-        <v>1.077982707644224</v>
+        <v>1.043073814128297</v>
       </c>
       <c r="M14">
-        <v>1.087911674240468</v>
+        <v>1.056831654253463</v>
       </c>
       <c r="N14">
-        <v>1.07814809850889</v>
+        <v>1.042426544672619</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.070431582468575</v>
+        <v>1.012839926098214</v>
       </c>
       <c r="D15">
-        <v>1.073576319214884</v>
+        <v>1.044166693482023</v>
       </c>
       <c r="E15">
-        <v>1.074672099178759</v>
+        <v>1.029317212673102</v>
       </c>
       <c r="F15">
-        <v>1.084631256628052</v>
+        <v>1.043297936676441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057449480731079</v>
+        <v>1.055143117021291</v>
       </c>
       <c r="J15">
-        <v>1.076726523628982</v>
+        <v>1.041540216406545</v>
       </c>
       <c r="K15">
-        <v>1.076994342314128</v>
+        <v>1.058233560159013</v>
       </c>
       <c r="L15">
-        <v>1.07808638888258</v>
+        <v>1.043637668226737</v>
       </c>
       <c r="M15">
-        <v>1.088011994581866</v>
+        <v>1.057379383019191</v>
       </c>
       <c r="N15">
-        <v>1.078255598794794</v>
+        <v>1.043019322980175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.071267629268905</v>
+        <v>1.017480185955729</v>
       </c>
       <c r="D16">
-        <v>1.074138927916642</v>
+        <v>1.047245848750175</v>
       </c>
       <c r="E16">
-        <v>1.075386825887285</v>
+        <v>1.033118489641527</v>
       </c>
       <c r="F16">
-        <v>1.085325182269506</v>
+        <v>1.046993684081257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057700141430325</v>
+        <v>1.056782085478824</v>
       </c>
       <c r="J16">
-        <v>1.077351020051046</v>
+        <v>1.044942407924887</v>
       </c>
       <c r="K16">
-        <v>1.07744581501581</v>
+        <v>1.060777097246631</v>
       </c>
       <c r="L16">
-        <v>1.078689610714481</v>
+        <v>1.046879462743654</v>
       </c>
       <c r="M16">
-        <v>1.088595665097444</v>
+        <v>1.060528963349004</v>
       </c>
       <c r="N16">
-        <v>1.078880982073407</v>
+        <v>1.046426346000709</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.071791945035184</v>
+        <v>1.020341422215542</v>
       </c>
       <c r="D17">
-        <v>1.07449175005311</v>
+        <v>1.049147500996474</v>
       </c>
       <c r="E17">
-        <v>1.075835129923892</v>
+        <v>1.035465274740176</v>
       </c>
       <c r="F17">
-        <v>1.085760450872085</v>
+        <v>1.049275934294106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057856935284717</v>
+        <v>1.057790318465008</v>
       </c>
       <c r="J17">
-        <v>1.077742475165235</v>
+        <v>1.04703974425134</v>
       </c>
       <c r="K17">
-        <v>1.077728714744596</v>
+        <v>1.062345382859539</v>
       </c>
       <c r="L17">
-        <v>1.079067779237725</v>
+        <v>1.048878787431204</v>
       </c>
       <c r="M17">
-        <v>1.088961578635439</v>
+        <v>1.062471826092677</v>
       </c>
       <c r="N17">
-        <v>1.079272993098759</v>
+        <v>1.048526660785314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072097729520561</v>
+        <v>1.021993173193089</v>
       </c>
       <c r="D18">
-        <v>1.074697514052067</v>
+        <v>1.050246319026414</v>
       </c>
       <c r="E18">
-        <v>1.076096609710564</v>
+        <v>1.03682103215729</v>
       </c>
       <c r="F18">
-        <v>1.08601433170288</v>
+        <v>1.050594618567623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057948232572411</v>
+        <v>1.058371473767755</v>
       </c>
       <c r="J18">
-        <v>1.077970705963722</v>
+        <v>1.048250301172517</v>
       </c>
       <c r="K18">
-        <v>1.077893618647834</v>
+        <v>1.063250654977411</v>
       </c>
       <c r="L18">
-        <v>1.079288281130211</v>
+        <v>1.050033077115139</v>
       </c>
       <c r="M18">
-        <v>1.089174935557724</v>
+        <v>1.063593655870585</v>
       </c>
       <c r="N18">
-        <v>1.079501548011158</v>
+        <v>1.049738936836172</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.072201987446659</v>
+        <v>1.022553527996653</v>
       </c>
       <c r="D19">
-        <v>1.074767668999096</v>
+        <v>1.050619259451111</v>
       </c>
       <c r="E19">
-        <v>1.076185766204382</v>
+        <v>1.037281135774965</v>
       </c>
       <c r="F19">
-        <v>1.086100897882652</v>
+        <v>1.051042175023922</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057979335829773</v>
+        <v>1.058568477592795</v>
       </c>
       <c r="J19">
-        <v>1.078048510157192</v>
+        <v>1.048660943925125</v>
       </c>
       <c r="K19">
-        <v>1.077949828549953</v>
+        <v>1.063557750423166</v>
       </c>
       <c r="L19">
-        <v>1.07936345350773</v>
+        <v>1.050424683792144</v>
       </c>
       <c r="M19">
-        <v>1.089247672210641</v>
+        <v>1.063974272633951</v>
       </c>
       <c r="N19">
-        <v>1.079579462695508</v>
+        <v>1.05015016274859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071735695083554</v>
+        <v>1.020036228208788</v>
       </c>
       <c r="D20">
-        <v>1.074453898810608</v>
+        <v>1.048944553677158</v>
       </c>
       <c r="E20">
-        <v>1.075787032026088</v>
+        <v>1.035214850774962</v>
       </c>
       <c r="F20">
-        <v>1.085713751095876</v>
+        <v>1.049032374815408</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057840129128838</v>
+        <v>1.057682866285456</v>
       </c>
       <c r="J20">
-        <v>1.077700485926675</v>
+        <v>1.046816052416705</v>
       </c>
       <c r="K20">
-        <v>1.077698373328934</v>
+        <v>1.062178108525002</v>
       </c>
       <c r="L20">
-        <v>1.079027213356454</v>
+        <v>1.048665517305059</v>
       </c>
       <c r="M20">
-        <v>1.088922327269383</v>
+        <v>1.062264564299928</v>
       </c>
       <c r="N20">
-        <v>1.079230944230665</v>
+        <v>1.048302651282617</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.070219254882785</v>
+        <v>1.011645831717891</v>
       </c>
       <c r="D21">
-        <v>1.073433432778022</v>
+        <v>1.043375322152818</v>
       </c>
       <c r="E21">
-        <v>1.074490605416573</v>
+        <v>1.02833995616567</v>
       </c>
       <c r="F21">
-        <v>1.084455048694079</v>
+        <v>1.042348014042548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057385696656821</v>
+        <v>1.054720635608162</v>
       </c>
       <c r="J21">
-        <v>1.076567864302759</v>
+        <v>1.040664587885085</v>
       </c>
       <c r="K21">
-        <v>1.076879611139849</v>
+        <v>1.057579034163327</v>
       </c>
       <c r="L21">
-        <v>1.077933149755982</v>
+        <v>1.042803601042318</v>
       </c>
       <c r="M21">
-        <v>1.087863722851923</v>
+        <v>1.056569178067428</v>
       </c>
       <c r="N21">
-        <v>1.078096714154129</v>
+        <v>1.042142450965778</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.069265423221056</v>
+        <v>1.006200963769466</v>
       </c>
       <c r="D22">
-        <v>1.072791537337385</v>
+        <v>1.039772125294159</v>
       </c>
       <c r="E22">
-        <v>1.073675400382524</v>
+        <v>1.023888750885547</v>
       </c>
       <c r="F22">
-        <v>1.083663604544688</v>
+        <v>1.038022392283735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057098548132589</v>
+        <v>1.052790779881758</v>
       </c>
       <c r="J22">
-        <v>1.07585483794163</v>
+        <v>1.036671382517184</v>
       </c>
       <c r="K22">
-        <v>1.076363853411399</v>
+        <v>1.054594822980632</v>
       </c>
       <c r="L22">
-        <v>1.07724455729054</v>
+        <v>1.039001370527535</v>
       </c>
       <c r="M22">
-        <v>1.087197455594955</v>
+        <v>1.052876463099907</v>
       </c>
       <c r="N22">
-        <v>1.077382675213783</v>
+        <v>1.038143574788228</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.069771105181404</v>
+        <v>1.009104226090412</v>
       </c>
       <c r="D23">
-        <v>1.073131845889301</v>
+        <v>1.041692292828602</v>
       </c>
       <c r="E23">
-        <v>1.074107565256758</v>
+        <v>1.026261174420134</v>
       </c>
       <c r="F23">
-        <v>1.084083169199988</v>
+        <v>1.040327658656343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057250906728913</v>
+        <v>1.053820475053456</v>
       </c>
       <c r="J23">
-        <v>1.076232913008848</v>
+        <v>1.038800689719346</v>
       </c>
       <c r="K23">
-        <v>1.076637358620951</v>
+        <v>1.056185954981753</v>
       </c>
       <c r="L23">
-        <v>1.077609661276927</v>
+        <v>1.041028550729916</v>
       </c>
       <c r="M23">
-        <v>1.087550721558235</v>
+        <v>1.054845102563375</v>
       </c>
       <c r="N23">
-        <v>1.077761287190962</v>
+        <v>1.040275905850852</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071761112139044</v>
+        <v>1.020174185115018</v>
       </c>
       <c r="D24">
-        <v>1.074471002254274</v>
+        <v>1.049036288838603</v>
       </c>
       <c r="E24">
-        <v>1.075808765421664</v>
+        <v>1.03532804690073</v>
       </c>
       <c r="F24">
-        <v>1.085734852726951</v>
+        <v>1.049142467423959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05784772359522</v>
+        <v>1.057731440663497</v>
       </c>
       <c r="J24">
-        <v>1.077719459360035</v>
+        <v>1.046917168524768</v>
       </c>
       <c r="K24">
-        <v>1.077712083638457</v>
+        <v>1.062253721824369</v>
       </c>
       <c r="L24">
-        <v>1.079045543571258</v>
+        <v>1.04876192151493</v>
       </c>
       <c r="M24">
-        <v>1.088940063501626</v>
+        <v>1.062358252145452</v>
       </c>
       <c r="N24">
-        <v>1.079249944608476</v>
+        <v>1.048403910987151</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.074068846710272</v>
+        <v>1.032352921010451</v>
       </c>
       <c r="D25">
-        <v>1.076023798788963</v>
+        <v>1.057154452395592</v>
       </c>
       <c r="E25">
-        <v>1.077782592420476</v>
+        <v>1.045340702105348</v>
       </c>
       <c r="F25">
-        <v>1.087651389377916</v>
+        <v>1.058884687776225</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058534104722807</v>
+        <v>1.062000001187154</v>
       </c>
       <c r="J25">
-        <v>1.079440663841546</v>
+        <v>1.055838468553592</v>
       </c>
       <c r="K25">
-        <v>1.078955059635327</v>
+        <v>1.06892588209848</v>
       </c>
       <c r="L25">
-        <v>1.08070877539442</v>
+        <v>1.057273695002747</v>
       </c>
       <c r="M25">
-        <v>1.090549410489585</v>
+        <v>1.070632835417118</v>
       </c>
       <c r="N25">
-        <v>1.080973593397776</v>
+        <v>1.057337880285303</v>
       </c>
     </row>
   </sheetData>
